--- a/results/mod1.age10.eff.MN.xlsx
+++ b/results/mod1.age10.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0642793657154525</v>
+        <v>-0.06428038374443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0178237041105364</v>
+        <v>0.0178235818972609</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0992131838432024</v>
+        <v>-0.0992139623385614</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0293455475877026</v>
+        <v>-0.0293468051502986</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.60639771154269</v>
+        <v>-3.60647955696877</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000310477164580448</v>
+        <v>0.00031037929884049</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0956133139252096</v>
+        <v>-0.095609495189412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0418881080627793</v>
+        <v>0.0418877606540169</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.177712497108779</v>
+        <v>-0.177707997464319</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0135141307416404</v>
+        <v>-0.013510992914505</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.28258850416233</v>
+        <v>-2.28251626958825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0224546187526197</v>
+        <v>0.0224588780522707</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0280370582129725</v>
+        <v>0.0280364292026135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0175863361153279</v>
+        <v>0.0175862418508416</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00643152719308611</v>
+        <v>-0.00643197144844715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0625056436190312</v>
+        <v>0.0625048298536741</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5942523803202</v>
+        <v>1.59422515853049</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11087951874329</v>
+        <v>0.110885613493416</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13185562142769</v>
+        <v>0.131853449731229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0153225503041378</v>
+        <v>0.0153224361258557</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.101823974680276</v>
+        <v>0.101822026769136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.161887268175103</v>
+        <v>0.161884872693321</v>
       </c>
       <c r="G5" t="n">
-        <v>8.60533128039932</v>
+        <v>8.60525367168824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00000000000000000760966569022661</v>
+        <v>0.00000000000000000761481640470426</v>
       </c>
     </row>
   </sheetData>
